--- a/ridership/monthly/2016_7.xlsx
+++ b/ridership/monthly/2016_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Weekday</t>
   </si>
@@ -119,6 +119,27 @@
   </si>
   <si>
     <t>24 Jul 2016</t>
+  </si>
+  <si>
+    <t>25 Jul 2016</t>
+  </si>
+  <si>
+    <t>26 Jul 2016</t>
+  </si>
+  <si>
+    <t>27 Jul 2016</t>
+  </si>
+  <si>
+    <t>28 Jul 2016</t>
+  </si>
+  <si>
+    <t>29 Jul 2016</t>
+  </si>
+  <si>
+    <t>30 Jul 2016</t>
+  </si>
+  <si>
+    <t>31 Jul 2016</t>
   </si>
 </sst>
 </file>
@@ -209,9 +230,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$24</c:f>
+              <c:f>Ridership!$B$2:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>01 Jul 2016</c:v>
                 </c:pt>
@@ -280,16 +301,37 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>24 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31 Jul 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$24</c:f>
+              <c:f>Ridership!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>191</c:v>
                 </c:pt>
@@ -318,7 +360,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>183</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>176</c:v>
@@ -351,13 +393,34 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>252</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -381,9 +444,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$24</c:f>
+              <c:f>Ridership!$B$2:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>01 Jul 2016</c:v>
                 </c:pt>
@@ -452,16 +515,37 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>24 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31 Jul 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$24</c:f>
+              <c:f>Ridership!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>82.28</c:v>
                 </c:pt>
@@ -490,7 +574,7 @@
                   <c:v>28.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.2</c:v>
+                  <c:v>86.53</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>87.41</c:v>
@@ -511,7 +595,7 @@
                   <c:v>30.09</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.78</c:v>
+                  <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>88.91</c:v>
@@ -523,13 +607,34 @@
                   <c:v>94.17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>89.4</c:v>
+                  <c:v>89.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>37.86</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>31.49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91.98</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>95.98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.73</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,9 +658,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$24</c:f>
+              <c:f>Ridership!$B$2:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>01 Jul 2016</c:v>
                 </c:pt>
@@ -624,16 +729,37 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>24 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31 Jul 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$24</c:f>
+              <c:f>Ridership!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>65.07</c:v>
                 </c:pt>
@@ -702,6 +828,27 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>68.51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.66</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68.81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.41</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,13 +941,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1108,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1299,10 +1446,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D11">
-        <v>86.2</v>
+        <v>86.53</v>
       </c>
       <c r="E11">
         <v>66.56</v>
@@ -1421,7 +1568,7 @@
         <v>151</v>
       </c>
       <c r="D18">
-        <v>87.78</v>
+        <v>88.1</v>
       </c>
       <c r="E18">
         <v>67.61</v>
@@ -1486,10 +1633,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D22">
-        <v>89.4</v>
+        <v>89.7</v>
       </c>
       <c r="E22">
         <v>68.21</v>
@@ -1527,6 +1674,125 @@
       </c>
       <c r="E24">
         <v>68.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>185</v>
+      </c>
+      <c r="D25">
+        <v>90.4</v>
+      </c>
+      <c r="E25">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>236</v>
+      </c>
+      <c r="D26">
+        <v>91.98</v>
+      </c>
+      <c r="E26">
+        <v>68.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>209</v>
+      </c>
+      <c r="D27">
+        <v>98.04</v>
+      </c>
+      <c r="E27">
+        <v>68.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>179</v>
+      </c>
+      <c r="D28">
+        <v>95.98</v>
+      </c>
+      <c r="E28">
+        <v>69.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>206</v>
+      </c>
+      <c r="D29">
+        <v>92.34</v>
+      </c>
+      <c r="E29">
+        <v>69.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>122</v>
+      </c>
+      <c r="D30">
+        <v>39.73</v>
+      </c>
+      <c r="E30">
+        <v>69.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>32.98</v>
+      </c>
+      <c r="E31">
+        <v>69.56</v>
       </c>
     </row>
   </sheetData>
